--- a/biology/Botanique/Jules_Barigny/Jules_Barigny.xlsx
+++ b/biology/Botanique/Jules_Barigny/Jules_Barigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ʽJules Barigny’ est un cultivar de rosier obtenu en 1886 par le rosiériste français Eugène Verdier[1]. Ce rosier est dédié à l'architecte de Meaux, Jules Barigny, membre de la Société littéraire et historique de la Brie[2].
+ʽJules Barigny’ est un cultivar de rosier obtenu en 1886 par le rosiériste français Eugène Verdier. Ce rosier est dédié à l'architecte de Meaux, Jules Barigny, membre de la Société littéraire et historique de la Brie.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs doubles de ce rosier remontant s'ouvrent dans une forme sphérique parfaite. Elles sont d'une couleur lie-de-vin profond[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs doubles de ce rosier remontant s'ouvrent dans une forme sphérique parfaite. Elles sont d'une couleur lie-de-vin profond.
 Ses rameaux portent des branchettes de 5 à 7 folioles vert clair oblongues presque sans pointe, très plates et largement dentées.
 Ce cultivar se plaît dans une situation ensoleillée.
-Cette rose parfumée était encore à la mode au début du XXe siècle et figurait en 1902 à la roseraie de L'Haÿ-les-Roses[4]. On peut l'admirer à la roseraie du château du Mesnil-Geoffroy à Ermenouville[5].
+Cette rose parfumée était encore à la mode au début du XXe siècle et figurait en 1902 à la roseraie de L'Haÿ-les-Roses. On peut l'admirer à la roseraie du château du Mesnil-Geoffroy à Ermenouville.
 </t>
         </is>
       </c>
